--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>715887.5092847083</v>
+        <v>776581.9671902249</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335138.4509359651</v>
+        <v>337002.2430554234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10900007.06587738</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8145305.651812981</v>
+        <v>8121653.028417466</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>215.4108546636942</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>96.06641246444056</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>66.30690372511722</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>58.07370746369914</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>65.82987003635729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>123.1348609141212</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="W8" t="n">
-        <v>129.6424525116598</v>
+        <v>84.41978777916147</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>26.41690733473123</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488295</v>
       </c>
     </row>
     <row r="10">
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>380.2606311264165</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>82.59957183215704</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>55.90923991536297</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.4538219748017</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>184.1853235583974</v>
       </c>
       <c r="W14" t="n">
-        <v>115.232542647585</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>70.80276983270117</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>128.78350070179</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>273.729430492744</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>103.7322385763027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>102.575648756399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>99.34907199631466</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2140,7 +2140,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.82290122762522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>179.7943042043777</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>251.3808181148277</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>96.53241147262429</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>379.745628186859</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>186.667326436814</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>45.4957852328564</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>86.8846229844745</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.3423105940807</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>30.69678734846195</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>133.9319637719969</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.19029374363589</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>114.8791903675471</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>156.5536644568857</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>59.72683757586851</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>226.9736586744964</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>304.9277339746607</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>279.4316181576252</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>87.12574707908773</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>101.8825978425036</v>
       </c>
       <c r="F41" t="n">
-        <v>92.81663595486133</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>28.44734925172043</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>314.6503616654265</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>98.63122914173739</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.84244993117463</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.56501858889139</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>731.2178664535166</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>484.1848034624637</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>237.1517404714108</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>19.56501858889139</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.56501858889139</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.56501858889139</v>
+        <v>116.3179233773244</v>
       </c>
       <c r="C3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>377.8476075409624</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>619.9647125784934</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>862.0818176160244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>862.0818176160244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>907.8577401332358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>877.5769898880284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>704.3079091975965</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>502.1534879887895</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>502.1534879887895</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>502.1534879887895</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>435.1768175593782</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X3" t="n">
-        <v>227.3253173538453</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.56501858889139</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>572.2914551403903</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>572.2914551403903</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>572.2914551403903</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>572.2914551403903</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>325.2583921493374</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>78.22532915828447</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>819.3245181314433</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>819.3245181314433</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>819.3245181314433</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>819.3245181314433</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>819.3245181314433</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>819.3245181314433</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>819.3245181314433</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>572.2914551403903</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.56501858889139</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>20.23786849471571</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>251.8996143319767</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>494.0167193695077</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>736.1338244070387</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>978.2509294445696</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>776.0965082357626</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>709.6016900172199</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>474.4495817854772</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>227.4165187944242</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X6" t="n">
-        <v>19.56501858889139</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56501858889139</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="C8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800421</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211352</v>
       </c>
       <c r="L8" t="n">
-        <v>330.254671414236</v>
+        <v>302.3720006057941</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098021</v>
+        <v>519.3476278686983</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369327</v>
+        <v>725.2021500759377</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885137</v>
+        <v>874.3971002185857</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424096</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>802.5825927271069</v>
       </c>
       <c r="S8" t="n">
-        <v>843.9662583320068</v>
+        <v>591.451209306657</v>
       </c>
       <c r="T8" t="n">
-        <v>619.0259954159467</v>
+        <v>591.451209306657</v>
       </c>
       <c r="U8" t="n">
-        <v>365.1489735786414</v>
+        <v>348.0024326625568</v>
       </c>
       <c r="V8" t="n">
-        <v>365.1489735786414</v>
+        <v>104.5536560184566</v>
       </c>
       <c r="W8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="X8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="Y8" t="n">
-        <v>234.1970013446416</v>
+        <v>19.28114311021274</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>335.3583420889269</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="C9" t="n">
-        <v>335.3583420889269</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D9" t="n">
-        <v>186.4239324276757</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E9" t="n">
-        <v>186.4239324276757</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F9" t="n">
-        <v>159.7401876451189</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683209</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399122</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>398.8245784347747</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>524.9036321565281</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>524.9036321565281</v>
+        <v>542.8095319084033</v>
       </c>
       <c r="O9" t="n">
-        <v>785.3166962490202</v>
+        <v>781.4136778972859</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="U9" t="n">
-        <v>824.7478070488712</v>
+        <v>735.8335372470258</v>
       </c>
       <c r="V9" t="n">
-        <v>589.5956988171286</v>
+        <v>500.6814290152831</v>
       </c>
       <c r="W9" t="n">
-        <v>335.3583420889269</v>
+        <v>257.2326523711829</v>
       </c>
       <c r="X9" t="n">
-        <v>335.3583420889269</v>
+        <v>49.38115216565006</v>
       </c>
       <c r="Y9" t="n">
-        <v>335.3583420889269</v>
+        <v>19.28114311021274</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360295</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014789</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021274</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1704.527073573122</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C11" t="n">
-        <v>1335.56455663271</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D11" t="n">
-        <v>977.29885802596</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>591.5106054277157</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.527073573122</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X11" t="n">
-        <v>1704.527073573122</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y11" t="n">
-        <v>1704.527073573122</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5117,22 +5117,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5141,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>257.3069090307627</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="C13" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="D13" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8761353302652</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8761353302652</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8761353302652</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8761353302652</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610024</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610024</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W13" t="n">
-        <v>438.9553738610024</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X13" t="n">
-        <v>438.9553738610024</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.9553738610024</v>
+        <v>351.9927747426009</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1215.960741127172</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="C14" t="n">
-        <v>1215.960741127172</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D14" t="n">
-        <v>857.6950425204218</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>2092.422847177207</v>
+        <v>2279.897132490767</v>
       </c>
       <c r="W14" t="n">
-        <v>1976.026339452374</v>
+        <v>1927.128477220653</v>
       </c>
       <c r="X14" t="n">
-        <v>1602.560581191294</v>
+        <v>1927.128477220653</v>
       </c>
       <c r="Y14" t="n">
-        <v>1602.560581191294</v>
+        <v>1536.989145244841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5445,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1251.855211652197</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117851</v>
+        <v>1314.867453641745</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117851</v>
+        <v>1314.867453641745</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W17" t="n">
-        <v>1528.349585887292</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X17" t="n">
-        <v>1528.349585887292</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1528.349585887292</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="18">
@@ -5591,34 +5591,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>369.8327295799423</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>369.8327295799423</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5709,16 +5709,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>882.8926947117851</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117851</v>
+        <v>898.3495310014346</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117851</v>
+        <v>540.0838323946841</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117851</v>
+        <v>154.2955797964399</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
@@ -5776,10 +5776,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
         <v>2247.308246834948</v>
@@ -5788,16 +5788,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.483574129469</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859355</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X20" t="n">
-        <v>936.2491605982752</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y20" t="n">
-        <v>882.8926947117851</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656313</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>1759.555763042629</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y23" t="n">
-        <v>1759.555763042629</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2325.978248184794</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V26" t="n">
-        <v>1994.915360841223</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W26" t="n">
-        <v>1642.146705571109</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X26" t="n">
-        <v>1268.68094731003</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y26" t="n">
-        <v>1268.68094731003</v>
+        <v>826.3310744827304</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6326,22 +6326,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1108.365917331524</v>
+        <v>997.2466063457011</v>
       </c>
       <c r="C29" t="n">
-        <v>739.4034003911122</v>
+        <v>628.2840894052895</v>
       </c>
       <c r="D29" t="n">
-        <v>381.1377017843616</v>
+        <v>628.2840894052895</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>242.4958368070452</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2651.193752399176</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2651.193752399176</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2432.559085371239</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2178.79730000933</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V29" t="n">
-        <v>1847.73441266576</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W29" t="n">
-        <v>1494.965757395646</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X29" t="n">
-        <v>1494.965757395646</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y29" t="n">
-        <v>1494.965757395646</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6548,10 +6548,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6563,16 +6563,16 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>350.9495687306105</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C31" t="n">
-        <v>350.9495687306105</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>350.9495687306105</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y31" t="n">
-        <v>350.9495687306105</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>750.1002187247734</v>
+        <v>1905.140074719375</v>
       </c>
       <c r="C32" t="n">
-        <v>381.1377017843616</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D32" t="n">
-        <v>381.1377017843616</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F32" t="n">
         <v>381.1377017843616</v>
@@ -6694,10 +6694,10 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V32" t="n">
-        <v>2253.073804295901</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W32" t="n">
-        <v>1900.305149025787</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X32" t="n">
-        <v>1526.839390764707</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y32" t="n">
-        <v>1136.700058788895</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="33">
@@ -6755,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>369.8327295799424</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D34" t="n">
-        <v>369.8327295799424</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E34" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1268.68094731003</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6967,22 +6967,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1816.955293888756</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1658.820279285841</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y35" t="n">
-        <v>1268.68094731003</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>53.94298182036446</v>
@@ -7022,19 +7022,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785274</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>409.0761618661917</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>261.1630682837986</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036446</v>
@@ -7134,13 +7134,13 @@
         <v>728.1289842064343</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>830.1724885289282</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="C38" t="n">
-        <v>830.1724885289282</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="D38" t="n">
-        <v>471.9067899221776</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>1485.892406545185</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X38" t="n">
-        <v>1112.426648284105</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y38" t="n">
-        <v>830.1724885289282</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7277,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
         <v>200.8329293182748</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>667.7988452409105</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>667.7988452409105</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W40" t="n">
-        <v>667.7988452409105</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X40" t="n">
-        <v>667.7988452409105</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.7988452409105</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C41" t="n">
-        <v>1309.714918859356</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D41" t="n">
-        <v>951.4492202526051</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="E41" t="n">
-        <v>565.6609676543608</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y41" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.7458231623355</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C43" t="n">
         <v>517.7458231623355</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>699.3942879925752</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="V43" t="n">
-        <v>699.3942879925752</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W43" t="n">
-        <v>699.3942879925752</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X43" t="n">
-        <v>699.3942879925752</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.3942879925752</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1210.087414675782</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.087414675782</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.087414675782</v>
+        <v>1175.523690667317</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>789.7354380690731</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X44" t="n">
-        <v>1210.087414675782</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y44" t="n">
-        <v>1210.087414675782</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>139.6424261952883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>286.5323736931987</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U46" t="n">
-        <v>286.5323736931987</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>384.6945110063436</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>373.8491954283778</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>140.7160931202018</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.7037257924976</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.245041851987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063437</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>132.4654202195568</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>256.9443198746409</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>301.2485028631353</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221036</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>6.781739002849037</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>83.18952610899251</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6782363562706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>154.3202460147749</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>76.64208652387518</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>185.3880794358024</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>149.4414326714929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>162.313313380569</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7252358559294</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>281.2498385782774</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>160.1109921583591</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.132250799777211</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>82.54783486318314</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>30.16525543352978</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.33136403017733</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247574</v>
       </c>
       <c r="W8" t="n">
-        <v>219.5985162057532</v>
+        <v>264.8211809382515</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>118.6523050586526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326044</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124214</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>67.9332040940478</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>26.61541461529492</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>303.6383668238965</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>111.3375811832649</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>9.717066866993463</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>143.5669349117375</v>
       </c>
       <c r="W14" t="n">
-        <v>234.008426069828</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>96.44405126592666</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23709,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401877</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>109.0044111707366</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>278.198131495959</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>46.03982426181339</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23949,7 +23949,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>307.5269737453968</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.4150374284284</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>52.02592219651751</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.9395374591028</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>155.4952276268837</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>86.9383544042894</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>154.691756035665</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>6.492310469194592</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24657,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>220.2087193048975</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8.982617341955311</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>59.78056899568335</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>17.36734479495641</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>352.0370543150186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>193.820294698138</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25128,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>156.8448117144484</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>239.8038512531359</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>213.1774362215833</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>107.5829646831824</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>59.54933966209461</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>101.9483117670507</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>106.8063204984284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>152.4187013741504</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>165.0118962447403</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>280.0477722297582</v>
       </c>
       <c r="F41" t="n">
-        <v>314.0594097868501</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25839,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>196.5877562063638</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>245.2493659069478</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>92.22568407628495</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>271.0998715367317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>82.46735232787628</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>460139.192720957</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>460139.1927209568</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.7944668498</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972479</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="J2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="J2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26352,7 +26352,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85498.77860120904</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753529</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835745</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589877</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847333</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16922.92270143587</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16922.92270143587</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16958.01308307726</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376168</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26496,7 +26496,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20936.67437322747</v>
+        <v>-5950.619346661764</v>
       </c>
       <c r="C6" t="n">
-        <v>64562.10422798156</v>
+        <v>74818.81218488603</v>
       </c>
       <c r="D6" t="n">
-        <v>46022.68383244485</v>
+        <v>74818.81218488599</v>
       </c>
       <c r="E6" t="n">
-        <v>-235469.5385490726</v>
+        <v>-255133.7025372568</v>
       </c>
       <c r="F6" t="n">
-        <v>172250.899134502</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="G6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="H6" t="n">
-        <v>172250.899134502</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="I6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="J6" t="n">
-        <v>108262.5275886032</v>
+        <v>114652.5289066329</v>
       </c>
       <c r="K6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="L6" t="n">
-        <v>167523.3360156546</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="M6" t="n">
-        <v>69816.78144386677</v>
+        <v>69739.11083168107</v>
       </c>
       <c r="N6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="O6" t="n">
-        <v>172250.899134502</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="P6" t="n">
-        <v>172250.899134502</v>
+        <v>177712.4715057393</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="F4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.339519793547</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302974</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052409</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678707</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945164</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296705</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522113</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553525</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612933</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367558</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887679</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760344</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324494</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679516</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332509</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0495004835149808</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246499</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522957</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847949</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588684</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081577</v>
@@ -32010,25 +32010,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>234.0017634719808</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>46.23830557294078</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.10423162760989</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6796463695195167</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194291</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894758</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>127.3525795169227</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.906790779802</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178749</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082925</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507654</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.4508996191905</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,7 +37867,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
